--- a/实施周数据-李登林组/12月/52周/实施周数据-李登林组-张福宗.xlsx
+++ b/实施周数据-李登林组/12月/52周/实施周数据-李登林组-张福宗.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="72">
   <si>
     <r>
       <rPr>
@@ -337,6 +337,38 @@
   </si>
   <si>
     <t>经理</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCI</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗牛士牛排</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗牛士(南方商城店)</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>昕丽华</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>督导</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品牌</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>不回访</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -755,7 +787,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,18 +891,44 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,32 +938,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -914,6 +946,9 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1212,36 +1247,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21.75" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1">
       <c r="A2" s="22"/>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="48" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="50"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:14" s="20" customFormat="1" ht="38.25" customHeight="1">
       <c r="A3" s="23" t="s">
@@ -1312,31 +1347,31 @@
       <c r="K4" s="34">
         <v>0</v>
       </c>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
     </row>
     <row r="5" spans="1:14" ht="24" customHeight="1">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="54"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" spans="1:14" ht="14.25">
       <c r="A6" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="28" t="s">
         <v>12</v>
       </c>
@@ -1348,12 +1383,12 @@
       <c r="A7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="31">
         <v>24</v>
       </c>
@@ -1363,12 +1398,12 @@
       <c r="A8" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="31">
         <v>32</v>
       </c>
@@ -1378,12 +1413,12 @@
       <c r="A9" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="32">
         <v>11</v>
       </c>
@@ -1393,12 +1428,12 @@
       <c r="A10" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="31">
         <v>22</v>
       </c>
@@ -1408,10 +1443,10 @@
       <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
     </row>
@@ -1419,10 +1454,10 @@
       <c r="A12" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
     </row>
@@ -1430,10 +1465,10 @@
       <c r="A13" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
     </row>
@@ -1441,10 +1476,10 @@
       <c r="A14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
     </row>
@@ -1452,10 +1487,10 @@
       <c r="A15" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="K15" s="21" t="s">
@@ -1466,10 +1501,10 @@
       <c r="A16" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
@@ -1477,10 +1512,10 @@
       <c r="A17" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
@@ -1488,25 +1523,15 @@
       <c r="A18" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
@@ -1515,6 +1540,16 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A5:G5"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1528,7 +1563,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1807,7 +1842,7 @@
       <c r="B7" s="56">
         <v>52</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="37">
         <v>43095</v>
       </c>
       <c r="D7" s="4" t="s">
@@ -1857,8 +1892,8 @@
       <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="55">
+      <c r="B8" s="57"/>
+      <c r="C8" s="37">
         <v>43095</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -1905,27 +1940,60 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="14"/>
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="37">
+        <v>43095</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="7">
+        <v>76118663</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="1">
+        <v>15638133617</v>
+      </c>
+      <c r="M9" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="4">
+        <v>13817944054</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="4"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
@@ -2484,14 +2552,14 @@
   <autoFilter ref="A1:Q44"/>
   <mergeCells count="2">
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="21" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24:A1048576 A9:A19 A1:A6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A24:A1048576 A1:A6 A11:A19">
       <formula1>"北京直客,北京大客户,北京饮食通,上海,成都,济南,南京,重庆,杭州,武汉,长沙,深圳,西安,代理"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C1048576 C9:C19 C1:C6">
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C1048576 C1:C6 C11:C19">
       <formula1>42736</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D1048576 D1:D19">
